--- a/DataDrivenFramework_POI/TestData/Testdata.xlsx
+++ b/DataDrivenFramework_POI/TestData/Testdata.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manda\eclipse-workspace\DataDrivenFramework_POI\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manda\git\DataDrivenFramework_POI\DataDrivenFramework_POI\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0E6882-8F55-44BD-9038-EF0CED496F56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C35E68-538E-45F3-A0B2-81DECC2C2701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="744" windowWidth="21600" windowHeight="11208" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1152" windowWidth="21600" windowHeight="11208" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,12 @@
     <sheet name="GmailLogin" sheetId="5" r:id="rId5"/>
     <sheet name="GoogleSearch" sheetId="6" r:id="rId6"/>
     <sheet name="BalajiLogin" sheetId="7" r:id="rId7"/>
+    <sheet name="SimpleInterest" sheetId="8" r:id="rId8"/>
+    <sheet name="CompoundInterest" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="98">
   <si>
     <t>Name</t>
   </si>
@@ -286,12 +288,52 @@
   </si>
   <si>
     <t>Testing@2</t>
+  </si>
+  <si>
+    <t>Principle</t>
+  </si>
+  <si>
+    <t>Rate of Interest</t>
+  </si>
+  <si>
+    <t>Period (Years)</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Simple Interest</t>
+  </si>
+  <si>
+    <t>Maturity Value</t>
+  </si>
+  <si>
+    <t>Test Results</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Compounded Yearly</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Test Failed</t>
+  </si>
+  <si>
+    <t>Test Passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,12 +401,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -654,8 +698,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -815,8 +859,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -890,8 +934,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -935,15 +979,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A20C7DF-D1D0-41B7-B84C-BE39107EC334}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1019,9 +1063,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1105,8 +1149,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1121,25 +1165,33 @@
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1151,25 +1203,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE2F9B2-6CC8-476F-BA00-2DE5E7F695C7}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="21.77734375" customWidth="1"/>
-    <col min="13" max="13" width="16.77734375" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1315,4 +1367,231 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36208C5E-1BFB-4EC3-9261-FACB3AEFE5C6}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2400</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>4567</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8352.56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="1">
+        <v>65000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>75000</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="5">
+        <v>84000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC224C8C-6207-428E-8883-3AFC22E1221C}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2456</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2">
+        <v>3914.99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>35000</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3">
+        <v>109844.99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>50000</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4">
+        <v>60949.72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DataDrivenFramework_POI/TestData/Testdata.xlsx
+++ b/DataDrivenFramework_POI/TestData/Testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manda\git\DataDrivenFramework_POI\DataDrivenFramework_POI\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C35E68-538E-45F3-A0B2-81DECC2C2701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAA79D3-EDF8-4006-A873-7FAC6992DC25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1152" windowWidth="21600" windowHeight="11208" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1152" windowWidth="21600" windowHeight="11208" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="GmailLogin" sheetId="5" r:id="rId5"/>
     <sheet name="GoogleSearch" sheetId="6" r:id="rId6"/>
     <sheet name="BalajiLogin" sheetId="7" r:id="rId7"/>
-    <sheet name="SimpleInterest" sheetId="8" r:id="rId8"/>
-    <sheet name="CompoundInterest" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId8"/>
+    <sheet name="SimpleInterest" sheetId="8" r:id="rId9"/>
+    <sheet name="CompoundInterest" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="103">
   <si>
     <t>Name</t>
   </si>
@@ -290,9 +291,6 @@
     <t>Testing@2</t>
   </si>
   <si>
-    <t>Principle</t>
-  </si>
-  <si>
     <t>Rate of Interest</t>
   </si>
   <si>
@@ -320,13 +318,31 @@
     <t>Compounded Yearly</t>
   </si>
   <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>PhotoID Proof</t>
+  </si>
+  <si>
+    <t>PhotoID Card</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Test Failed</t>
-  </si>
-  <si>
-    <t>Test Passed</t>
+    <t>Test Pass</t>
+  </si>
+  <si>
+    <t>Test Fail</t>
   </si>
 </sst>
 </file>
@@ -373,7 +389,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -396,12 +412,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -409,6 +436,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -693,7 +722,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,6 +873,110 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC224C8C-6207-428E-8883-3AFC22E1221C}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2456</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2">
+        <v>3914.99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>35000</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3">
+        <v>109844.99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>50000</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4">
+        <v>60949.72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -980,7 +1113,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1008,7 +1141,9 @@
       <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -1017,7 +1152,9 @@
       <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1026,7 +1163,9 @@
       <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1035,7 +1174,9 @@
       <c r="B5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1203,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE2F9B2-6CC8-476F-BA00-2DE5E7F695C7}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1370,6 +1511,185 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8887F1AB-9024-4490-BE34-30F366A2B3D7}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8019998712</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="1">
+        <v>501032</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8019998713</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="1">
+        <v>501033</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{0B629F3A-8B6D-4577-B79F-731A51079AA4}"/>
+    <hyperlink ref="M2" r:id="rId2" xr:uid="{8C7198EB-F955-44ED-8867-FA5519765A00}"/>
+    <hyperlink ref="N2" r:id="rId3" xr:uid="{2F1388C8-1D5C-411E-8D07-5C3B96081FA9}"/>
+    <hyperlink ref="L3" r:id="rId4" xr:uid="{270BD723-9DFD-4C98-BFB8-B9E7CE09C9B4}"/>
+    <hyperlink ref="M3" r:id="rId5" xr:uid="{D86572EB-50BC-42CC-9F50-A66203BC1827}"/>
+    <hyperlink ref="N3" r:id="rId6" xr:uid="{E118E1C7-8486-426A-A45A-A9774818234D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36208C5E-1BFB-4EC3-9261-FACB3AEFE5C6}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1383,27 +1703,27 @@
     <col min="3" max="3" customWidth="true" width="16.88671875" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="19.77734375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1417,7 +1737,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1">
         <v>2400</v>
@@ -1437,13 +1757,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="1">
         <v>8352.56</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1457,7 +1777,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1">
         <v>65000</v>
@@ -1473,121 +1793,17 @@
       <c r="B5" s="5">
         <v>6</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="5">
         <v>84000</v>
       </c>
       <c r="F5" t="s">
         <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC224C8C-6207-428E-8883-3AFC22E1221C}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2456</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2">
-        <v>3914.99</v>
-      </c>
-      <c r="F2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>35000</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3">
-        <v>109844.99</v>
-      </c>
-      <c r="F3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>50000</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4">
-        <v>60949.72</v>
-      </c>
-      <c r="F4" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
